--- a/Data engineering/Data_engineer.xlsx
+++ b/Data engineering/Data_engineer.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
   <si>
     <t>hh.ru, Россия, 16.11.2023</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>https://vk.com/smartdata</t>
+  </si>
+  <si>
+    <t>https://www.reddit.com/r/dataengineering/</t>
   </si>
 </sst>
 </file>
@@ -1656,7 +1659,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1689,16 +1692,15 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">

--- a/Data engineering/Data_engineer.xlsx
+++ b/Data engineering/Data_engineer.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="27735" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="27735" windowHeight="12285" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Names-Functions" sheetId="3" r:id="rId1"/>
     <sheet name="Ключевые навыки" sheetId="2" r:id="rId2"/>
     <sheet name="Networking" sheetId="4" r:id="rId3"/>
     <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Road maps" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="189">
   <si>
     <t>hh.ru, Россия, 16.11.2023</t>
   </si>
@@ -578,6 +579,12 @@
   </si>
   <si>
     <t>https://www.reddit.com/r/dataengineering/</t>
+  </si>
+  <si>
+    <t>Дорожная карта Data Science 2023: пошаговый гайд</t>
+  </si>
+  <si>
+    <t>https://tproger.ru/articles/roadmap-data-science-2023</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1136,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1658,7 +1665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1823,4 +1830,31 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data engineering/Data_engineer.xlsx
+++ b/Data engineering/Data_engineer.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="191">
   <si>
     <t>hh.ru, Россия, 16.11.2023</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>https://tproger.ru/articles/roadmap-data-science-2023</t>
+  </si>
+  <si>
+    <t>Data Engineering: ETL, ELT, Data Pipeline, Data Warehouse, Data Lakes, Data Marts</t>
+  </si>
+  <si>
+    <t>https://ivan-shamaev.ru/data-engineering-etl-pipeline-data-warehouse-datalake/</t>
   </si>
 </sst>
 </file>
@@ -1834,16 +1840,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1854,6 +1860,14 @@
         <v>188</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
